--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9ADC83-5103-4EE6-A479-4413A4881F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412F111-F985-4D47-B362-2DE81862E098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,9 +1797,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1935,19 +1938,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3638A74-045D-4C69-8782-7A3F5451A28F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9610A425-7303-4A63-8974-46CD6E4FE35E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1971,9 +1970,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9610A425-7303-4A63-8974-46CD6E4FE35E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3638A74-045D-4C69-8782-7A3F5451A28F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412F111-F985-4D47-B362-2DE81862E098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEA09D-4BF9-412F-9AD5-DE14F088A739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -218,18 +218,6 @@
   </si>
   <si>
     <t>trifft eher zu</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Lu</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Jorge</t>
   </si>
   <si>
     <t>XtirPZVEdUeJPphBnuhL9pGi7akunfJBqzV8e62EJ39UQjJOTVQ5U01TRE00MEVIWkxSMUJPNFdQMiQlQCN0PWcu</t>
@@ -814,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,624 +1125,20 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44712.397060185198</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44712.399282407401</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44712.397060185198</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44712.399282407401</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44712.397060185198</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44712.399282407401</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>58</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44712.397060185198</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44712.399282407401</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>58</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,17 +1161,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1797,12 +1181,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1938,15 +1319,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9610A425-7303-4A63-8974-46CD6E4FE35E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3638A74-045D-4C69-8782-7A3F5451A28F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1970,10 +1355,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3638A74-045D-4C69-8782-7A3F5451A28F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9610A425-7303-4A63-8974-46CD6E4FE35E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEA09D-4BF9-412F-9AD5-DE14F088A739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31ED34-1C25-4A99-8610-02CBE17C35ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>trifft eher zu</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Jorge</t>
   </si>
   <si>
     <t>XtirPZVEdUeJPphBnuhL9pGi7akunfJBqzV8e62EJ39UQjJOTVQ5U01TRE00MEVIWkxSMUJPNFdQMiQlQCN0PWcu</t>
@@ -1125,20 +1137,624 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44712.397060185198</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44712.399282407401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44712.397060185198</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44712.399282407401</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44712.397060185198</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44712.399282407401</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44712.397060185198</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44712.399282407401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,17 +1777,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31ED34-1C25-4A99-8610-02CBE17C35ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFED58-717D-4FDE-8637-3AD7CECB65B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFED58-717D-4FDE-8637-3AD7CECB65B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F393B-EB58-4FB1-8E02-78AA61EBD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F393B-EB58-4FB1-8E02-78AA61EBD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB10F88-BDA4-4820-8395-35068FEA9A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB10F88-BDA4-4820-8395-35068FEA9A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98244D34-73F7-45CC-99DB-4863B95B6E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{688b34f4-6c76-496f-b085-29544072638f}"</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>Lu</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Jorge</t>
   </si>
   <si>
     <t>XtirPZVEdUeJPphBnuhL9pGi7akunfJBqzV8e62EJ39UQjJOTVQ5U01TRE00MEVIWkxSMUJPNFdQMiQlQCN0PWcu</t>
@@ -815,7 +809,7 @@
   <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1454,7 @@
         <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>54</v>
@@ -1615,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
@@ -1777,17 +1771,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NayraMedinaJerez\Documents\PythonProjects\KiMaturityModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98244D34-73F7-45CC-99DB-4863B95B6E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213F6DF-2D76-44DD-BDE1-AF890D43EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>{688b34f4-6c76-496f-b085-29544072638f}</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>Completion time</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Wir   entscheiden standardmäßig datenbasiert und sind motiviert auch zukünftig   Prognosen und KI zu nutzen.</t>
+  </si>
+  <si>
+    <t>Wir   verfügen über mehrere KI-Lösungen, die in der Produktion eingesetzt werden   und einen Mehrwert schaffen.</t>
+  </si>
+  <si>
+    <t>Das   Unternehmen verfügt über einen gut etablierten Prozess, um interne   Mitarbeiter:innen die Möglichkeiten von KI-Projekten aufzuzeigen z.B. IT   Abteilung .</t>
   </si>
 </sst>
 </file>
@@ -242,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,13 +268,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,9 +310,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,18 +847,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="52" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1130,7 +1171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1285,7 +1326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1440,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1595,7 +1636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1749,6 +1790,165 @@
       <c r="AZ6" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,19 +1967,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1791,9 +1991,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1929,19 +2132,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3638A74-045D-4C69-8782-7A3F5451A28F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9610A425-7303-4A63-8974-46CD6E4FE35E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1965,9 +2164,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9610A425-7303-4A63-8974-46CD6E4FE35E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3638A74-045D-4C69-8782-7A3F5451A28F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>